--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,7 +450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>43663</v>
       </c>

--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -290,8 +290,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -390,18 +390,33 @@
   <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -469,7 +484,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>43664</v>
       </c>
@@ -488,7 +503,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>43665</v>
       </c>
@@ -507,7 +522,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>43667</v>
       </c>
@@ -526,7 +541,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>43668</v>
       </c>
@@ -545,7 +560,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>43669</v>
       </c>
@@ -564,7 +579,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>43671</v>
       </c>
@@ -583,7 +598,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>43672</v>
       </c>
@@ -602,7 +617,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>43673</v>
       </c>
@@ -621,7 +636,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>43675</v>
       </c>
@@ -640,7 +655,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>43676</v>
       </c>
@@ -659,7 +674,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>43677</v>
       </c>
@@ -697,12 +712,15 @@
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -152,17 +152,461 @@
   </si>
   <si>
     <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">几何(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线段树(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二分+最短路(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网络流构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小模拟(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到(gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">环分解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">链的颜色计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">置换计数(gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">齿轮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[cxy,ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">基数排序(ct)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">短路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">生成函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排列计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模拟暴搜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整点个数(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC自动机(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTT+Hash(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博弈+异或计数(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剪纸</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">线段树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DP(gy,cxy)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">树形背包(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模拟B树(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floyd(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心打怪兽(cxy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">冒泡排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">几何</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+LIS(gy,ct)[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt-in-mid(cxy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">区间值域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NTT(gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NTT+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">反演</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">容斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[cxy]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">寿司晚宴(ct)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">最小割建图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas+倍增(ct)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">状压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等比求和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+DP</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">带花树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二分+贪心(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心费用流(ct,gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">随机游走</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无向图计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">染色计数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">结论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">斜率优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FWT(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k大(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trie(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逻辑门构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找规律(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欧拉回路计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">划分DP(ct,gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">费用流模拟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心模拟(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暴力[ct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成树(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博弈(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扫描线(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线段树(ct)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YY\年M\月D\日"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -230,8 +674,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +697,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,12 +752,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,11 +769,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,16 +906,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:O18"/>
+  <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,277 +946,487 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>43663</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>43664</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>43665</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>43667</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>43668</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>43669</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>43671</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="2"/>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>43672</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>43673</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>43675</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
         <v>43676</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>43679</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>43680</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>43681</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anoxiacxy\Documents\GitHub\Aerial-Ace\Training\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A09860-E9FA-4DBD-893D-4BDC40ECCFE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -29,7 +34,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">注：</t>
+      <t>注：</t>
     </r>
     <r>
       <rPr>
@@ -39,7 +44,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">绿色</t>
+      <t>绿色</t>
     </r>
     <r>
       <rPr>
@@ -48,7 +53,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">表示考场上就过的题，</t>
+      <t>表示考场上就过的题，</t>
     </r>
     <r>
       <rPr>
@@ -58,7 +63,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">黄色</t>
+      <t>黄色</t>
     </r>
     <r>
       <rPr>
@@ -67,7 +72,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">表示已经补好的题，</t>
+      <t>表示已经补好的题，</t>
     </r>
     <r>
       <rPr>
@@ -77,7 +82,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">红色</t>
+      <t>红色</t>
     </r>
     <r>
       <rPr>
@@ -86,7 +91,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">表示可以补的题，</t>
+      <t>表示可以补的题，</t>
     </r>
     <r>
       <rPr>
@@ -96,7 +101,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">灰色</t>
+      <t>灰色</t>
     </r>
     <r>
       <rPr>
@@ -105,84 +110,84 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">表示不可做的题,黑色表示没有这道题</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">几何(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">线段树(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二分+最短路(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hash(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网络流构造</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小模拟(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到(gy)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">环分解</t>
+      <t>表示不可做的题,黑色表示没有这道题</t>
+    </r>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>几何(gy)</t>
+  </si>
+  <si>
+    <t>线段树(cxy)</t>
+  </si>
+  <si>
+    <t>二分+最短路(cxy)</t>
+  </si>
+  <si>
+    <t>Hash(cxy)</t>
+  </si>
+  <si>
+    <t>网络流构造</t>
+  </si>
+  <si>
+    <t>小模拟(ct)</t>
+  </si>
+  <si>
+    <t>签到(gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>环分解</t>
     </r>
     <r>
       <rPr>
@@ -191,24 +196,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">链的颜色计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">置换计数(gy)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">齿轮</t>
+      <t>[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t>链的颜色计数</t>
+  </si>
+  <si>
+    <t>置换计数(gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>齿轮</t>
     </r>
     <r>
       <rPr>
@@ -217,11 +222,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[cxy,ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">基数排序(ct)</t>
+      <t>[cxy,ct]</t>
+    </r>
+  </si>
+  <si>
+    <t>基数排序(ct)</t>
   </si>
   <si>
     <r>
@@ -231,16 +236,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">短路</t>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>短路</t>
     </r>
     <r>
       <rPr>
@@ -249,48 +254,48 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">生成函数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排列计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模拟暴搜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整点个数(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC自动机(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTT+Hash(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博弈+异或计数(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剪纸</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">线段树</t>
+      <t>[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t>生成函数</t>
+  </si>
+  <si>
+    <t>签到(ct)</t>
+  </si>
+  <si>
+    <t>排列计数</t>
+  </si>
+  <si>
+    <t>Java(gy)</t>
+  </si>
+  <si>
+    <t>模拟暴搜</t>
+  </si>
+  <si>
+    <t>整点个数(gy)</t>
+  </si>
+  <si>
+    <t>AC自动机(cxy)</t>
+  </si>
+  <si>
+    <t>NTT+Hash(cxy)</t>
+  </si>
+  <si>
+    <t>博弈+异或计数(ct)</t>
+  </si>
+  <si>
+    <t>剪纸</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>线段树</t>
     </r>
     <r>
       <rPr>
@@ -299,33 +304,33 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DP(gy,cxy)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">树形背包(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模拟B树(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floyd(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心打怪兽(cxy)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">冒泡排序</t>
+      <t>DP(gy,cxy)</t>
+    </r>
+  </si>
+  <si>
+    <t>树形背包(cxy)</t>
+  </si>
+  <si>
+    <t>DP(gy)</t>
+  </si>
+  <si>
+    <t>模拟B树(ct)</t>
+  </si>
+  <si>
+    <t>Floyd(ct)</t>
+  </si>
+  <si>
+    <t>贪心打怪兽(cxy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>冒泡排序</t>
     </r>
     <r>
       <rPr>
@@ -334,18 +339,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">几何</t>
+      <t>DP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>几何</t>
     </r>
     <r>
       <rPr>
@@ -354,21 +359,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+LIS(gy,ct)[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mt-in-mid(cxy)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区间值域</t>
+      <t>+LIS(gy,ct)[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mt-in-mid(cxy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>区间值域</t>
     </r>
     <r>
       <rPr>
@@ -377,11 +382,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NTT(gy)</t>
+      <t>[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t>NTT(gy)</t>
   </si>
   <si>
     <r>
@@ -391,27 +396,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NTT+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">反演</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">容斥</t>
+      <t>NTT+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>反演</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>容斥</t>
     </r>
     <r>
       <rPr>
@@ -420,21 +425,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[cxy]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">寿司晚宴(ct)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">最小割建图</t>
+      <t>[cxy]</t>
+    </r>
+  </si>
+  <si>
+    <t>寿司晚宴(ct)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>最小割建图</t>
     </r>
     <r>
       <rPr>
@@ -443,21 +448,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas+倍增(ct)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">状压</t>
+      <t>[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t>Lucas+倍增(ct)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>状压</t>
     </r>
     <r>
       <rPr>
@@ -466,18 +471,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等比求和</t>
+      <t>DP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>等比求和</t>
     </r>
     <r>
       <rPr>
@@ -486,39 +491,39 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+DP</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">带花树</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二分+贪心(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心费用流(ct,gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">随机游走</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无向图计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">构造</t>
-  </si>
-  <si>
-    <t xml:space="preserve">染色计数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">结论</t>
+      <t>+DP</t>
+    </r>
+  </si>
+  <si>
+    <t>带花树</t>
+  </si>
+  <si>
+    <t>二分+贪心(ct)</t>
+  </si>
+  <si>
+    <t>贪心费用流(ct,gy)</t>
+  </si>
+  <si>
+    <t>随机游走</t>
+  </si>
+  <si>
+    <t>无向图计数</t>
+  </si>
+  <si>
+    <t>构造</t>
+  </si>
+  <si>
+    <t>染色计数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>结论</t>
     </r>
     <r>
       <rPr>
@@ -527,16 +532,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">斜率优化</t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>斜率优化</t>
     </r>
     <r>
       <rPr>
@@ -545,88 +550,332 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FWT(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k大(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trie(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逻辑门构造</t>
-  </si>
-  <si>
-    <t xml:space="preserve">找规律(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">欧拉回路计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">划分DP(ct,gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">费用流模拟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心模拟(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暴力[ct]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成树(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博弈(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">扫描线(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">线段树(ct)</t>
+      <t>[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t>计数</t>
+  </si>
+  <si>
+    <t>FWT(cxy)</t>
+  </si>
+  <si>
+    <t>k大(cxy)</t>
+  </si>
+  <si>
+    <t>trie(ct)</t>
+  </si>
+  <si>
+    <t>贪心(cxy)</t>
+  </si>
+  <si>
+    <t>逻辑门构造</t>
+  </si>
+  <si>
+    <t>找规律(gy)</t>
+  </si>
+  <si>
+    <t>欧拉回路计数</t>
+  </si>
+  <si>
+    <t>划分DP(ct,gy)</t>
+  </si>
+  <si>
+    <t>费用流模拟</t>
+  </si>
+  <si>
+    <t>贪心模拟(ct)</t>
+  </si>
+  <si>
+    <t>暴力[ct]</t>
+  </si>
+  <si>
+    <t>生成树(cxy)</t>
+  </si>
+  <si>
+    <t>博弈(gy)</t>
+  </si>
+  <si>
+    <t>扫描线(cxy)</t>
+  </si>
+  <si>
+    <t>线段树(ct)</t>
+  </si>
+  <si>
+    <t>几何(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次函数(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST+枚举(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫比乌斯(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或和(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形背包(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>容斥(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列DP(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何+LIS(ct,gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴搜，构造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[cxy]</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>线段树(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>折半枚举(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列DP(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心枚举(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心+DP(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格计数(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代打表(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM构造(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二次函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[cxy]</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcd+构造树(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>树上计数(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何+积分(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>树上计数(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列计数(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值DP(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀数组(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ct]</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几何</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[gy]</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCRT(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算器模拟(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算器构造(gy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCT(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分图博弈(cxy)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码(ct)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="yy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -679,8 +928,31 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,9 +989,27 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -727,117 +1017,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -896,31 +1110,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.5"/>
+    <col min="3" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +1461,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" ht="17.5">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -986,103 +1508,199 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:15" ht="18">
+      <c r="A6" s="4">
         <v>43663</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="C6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:15" ht="18">
+      <c r="A7" s="4">
         <v>43664</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="C7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:15" ht="18">
+      <c r="A8" s="4">
         <v>43665</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:15" ht="18">
+      <c r="A9" s="4">
         <v>43667</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:15" ht="18">
+      <c r="A10" s="4">
         <v>43668</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:15" ht="18">
+      <c r="A11" s="4">
         <v>43669</v>
       </c>
       <c r="B11" s="2"/>
@@ -1116,8 +1734,8 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:15" ht="18">
+      <c r="A12" s="4">
         <v>43671</v>
       </c>
       <c r="B12" s="2"/>
@@ -1153,8 +1771,8 @@
       </c>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:15" ht="18">
+      <c r="A13" s="4">
         <v>43672</v>
       </c>
       <c r="B13" s="2"/>
@@ -1192,27 +1810,43 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:15" ht="18">
+      <c r="A14" s="4">
         <v>43673</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:15" ht="18">
+      <c r="A15" s="4">
         <v>43675</v>
       </c>
       <c r="B15" s="2"/>
@@ -1254,8 +1888,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:15" ht="18">
+      <c r="A16" s="4">
         <v>43676</v>
       </c>
       <c r="B16" s="2"/>
@@ -1291,8 +1925,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:15" ht="18">
+      <c r="A17" s="4">
         <v>43677</v>
       </c>
       <c r="B17" s="2"/>
@@ -1330,8 +1964,8 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:15" ht="18">
+      <c r="A18" s="4">
         <v>43679</v>
       </c>
       <c r="B18" s="18"/>
@@ -1371,8 +2005,8 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:15" ht="18">
+      <c r="A19" s="4">
         <v>43680</v>
       </c>
       <c r="B19" s="18"/>
@@ -1408,8 +2042,8 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:15" ht="18">
+      <c r="A20" s="4">
         <v>43681</v>
       </c>
       <c r="B20" s="18"/>
@@ -1427,29 +2061,14 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:O2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12页 &amp;P</oddFooter>
   </headerFooter>

--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -606,7 +606,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -674,11 +674,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -718,12 +713,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -752,7 +754,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,71 +763,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -906,17 +900,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:O21"/>
+  <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="18.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1086,7 +1080,7 @@
         <v>43669</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1100,7 +1094,7 @@
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1109,7 +1103,7 @@
       <c r="K11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="6"/>
@@ -1121,11 +1115,11 @@
         <v>43671</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3"/>
@@ -1133,16 +1127,16 @@
       <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="5" t="s">
@@ -1151,20 +1145,20 @@
       <c r="N12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>43672</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1179,10 +1173,10 @@
       <c r="I13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -1211,13 +1205,13 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>43675</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1238,23 +1232,23 @@
       <c r="J15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>46</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>43676</v>
       </c>
@@ -1264,30 +1258,30 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>54</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1296,35 +1290,35 @@
         <v>43677</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="N17" s="6"/>
@@ -1334,8 +1328,8 @@
       <c r="A18" s="4" t="n">
         <v>43679</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1353,13 +1347,13 @@
       <c r="H18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -1375,8 +1369,8 @@
       <c r="A19" s="4" t="n">
         <v>43680</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1385,7 +1379,7 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1400,7 +1394,7 @@
       <c r="J19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1412,25 +1406,89 @@
       <c r="A20" s="4" t="n">
         <v>43681</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
   <si>
     <r>
       <rPr>
@@ -806,7 +806,25 @@
     <t xml:space="preserve">Seg+Base[ct]</t>
   </si>
   <si>
-    <t xml:space="preserve">交通</t>
+    <t xml:space="preserve">交通(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最小割(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM[cxy]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">莫比乌斯+有理数二分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无刺仙人掌计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">序列自动机(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">莫比乌斯</t>
   </si>
   <si>
     <t xml:space="preserve">Counting</t>
@@ -854,7 +872,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -928,6 +946,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1013,7 +1036,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1091,6 +1114,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1181,8 +1208,8 @@
   </sheetPr>
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1808,13 +1835,25 @@
       <c r="F20" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
@@ -1824,42 +1863,42 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="O21" s="21"/>
+        <v>146</v>
+      </c>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">

--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
   <si>
     <r>
       <rPr>
@@ -861,6 +861,39 @@
   </si>
   <si>
     <t xml:space="preserve">启发式暴力(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">几何[ct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找规律(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODT(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二维偏序(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逻辑门+DP(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">树上倍增(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">根号枚举(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二分图(llx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分类讨论最短路[cxy]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA+最小字典序合并(ct, cxy)</t>
   </si>
 </sst>
 </file>
@@ -952,7 +985,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,7 +1031,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCE181E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FFED1C24"/>
       </patternFill>
     </fill>
   </fills>
@@ -1036,7 +1075,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1117,15 +1156,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,7 +1204,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1192,7 +1239,7 @@
       <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1208,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1851,7 +1898,7 @@
         <v>133</v>
       </c>
       <c r="L20" s="11"/>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="11" t="s">
         <v>134</v>
       </c>
       <c r="N20" s="6"/>
@@ -1877,7 +1924,7 @@
       <c r="G21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="20" t="s">
         <v>140</v>
       </c>
       <c r="I21" s="19" t="s">
@@ -1898,26 +1945,52 @@
       <c r="N21" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="O21" s="22"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>43684</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="C22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">

--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="185">
   <si>
     <r>
       <rPr>
@@ -112,48 +112,48 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -215,6 +215,9 @@
     <t xml:space="preserve">编码(ct)</t>
   </si>
   <si>
+    <t xml:space="preserve">2011-2012 ACM-ICPC, Central Europe Regional Contest (CERC 11)</t>
+  </si>
+  <si>
     <t xml:space="preserve">树上计数(ct)</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
     <t xml:space="preserve">搜索(ct)</t>
   </si>
   <si>
+    <t xml:space="preserve">2006-2007 Winter Petrozavodsk Camp, Andrew Stankevich Contest 23 (ASC 23)</t>
+  </si>
+  <si>
     <t xml:space="preserve">概率(gy)</t>
   </si>
   <si>
@@ -283,6 +289,9 @@
     <t xml:space="preserve">签到(ct)</t>
   </si>
   <si>
+    <t xml:space="preserve">Egyptian Collegiate Programming Contest 2017 (ACM ECPC 2017)</t>
+  </si>
+  <si>
     <t xml:space="preserve">贪心枚举(ct)</t>
   </si>
   <si>
@@ -307,6 +316,9 @@
     <t xml:space="preserve">SAM构造(ct)</t>
   </si>
   <si>
+    <t xml:space="preserve">2007-2008 Summer Petrozavodsk Camp, Andrew Stankevich Contest 26 (ASC 26)</t>
+  </si>
+  <si>
     <t xml:space="preserve">枚举(cxy)</t>
   </si>
   <si>
@@ -348,6 +360,9 @@
     <t xml:space="preserve">线段树(ct)</t>
   </si>
   <si>
+    <t xml:space="preserve">International Collegiate Programming Contest, Egyptian Collegiate Programming Contest (ECPC 2018)</t>
+  </si>
+  <si>
     <t xml:space="preserve">线段树(cxy)</t>
   </si>
   <si>
@@ -386,6 +401,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">2007-2008 Winter Petrozavodsk Camp, Andrew Stankevich Contest 29 (ASC 29)</t>
+  </si>
+  <si>
     <t xml:space="preserve">链的颜色计数</t>
   </si>
   <si>
@@ -450,6 +468,9 @@
     <t xml:space="preserve">排列计数</t>
   </si>
   <si>
+    <t xml:space="preserve">2017 Chinese Multi-University Training, BeihangU Contest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Java(gy)</t>
   </si>
   <si>
@@ -494,6 +515,9 @@
     <t xml:space="preserve">树形背包(cxy)</t>
   </si>
   <si>
+    <t xml:space="preserve">Hefei 2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">子集(cxy)</t>
   </si>
   <si>
@@ -512,6 +536,9 @@
     <t xml:space="preserve">异或和(ct)</t>
   </si>
   <si>
+    <t xml:space="preserve">Amritapuri 2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">DP(gy)</t>
   </si>
   <si>
@@ -590,6 +617,9 @@
     <t xml:space="preserve">NTT(gy)</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-2019 ACM-ICPC, China Multi-Provincial Collegiate Programming Contest</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -696,6 +726,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">2017 Multi-University Training Contest - Team 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">带花树</t>
   </si>
   <si>
@@ -758,6 +791,9 @@
     <t xml:space="preserve">计数</t>
   </si>
   <si>
+    <t xml:space="preserve">300iq Contest 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">FWT(cxy)</t>
   </si>
   <si>
@@ -782,6 +818,9 @@
     <t xml:space="preserve">划分DP(ct,gy)</t>
   </si>
   <si>
+    <t xml:space="preserve">2017 Multi-University Training Contest - Team 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">费用流模拟</t>
   </si>
   <si>
@@ -800,6 +839,9 @@
     <t xml:space="preserve">扫描线(cxy)</t>
   </si>
   <si>
+    <t xml:space="preserve">The 13th Chinese Northeast Collegiate Programming Contest</t>
+  </si>
+  <si>
     <t xml:space="preserve">DP[gy]</t>
   </si>
   <si>
@@ -827,6 +869,9 @@
     <t xml:space="preserve">莫比乌斯</t>
   </si>
   <si>
+    <t xml:space="preserve">2019 Multi-University Training Contest 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Counting</t>
   </si>
   <si>
@@ -863,6 +908,9 @@
     <t xml:space="preserve">启发式暴力(ct)</t>
   </si>
   <si>
+    <t xml:space="preserve">2019 Multi-University Training Contest 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">几何[ct]</t>
   </si>
   <si>
@@ -894,6 +942,39 @@
   </si>
   <si>
     <t xml:space="preserve">SA+最小字典序合并(ct, cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-2018 ACM-ICPC Latin American Regional Programming Contest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支配树(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点分治[ct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min-25[ct,cxy]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miller_Rabin(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带修改莫队[ct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">费用流(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">树剖线段树[ct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">换根DP(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 Multi-University Training Contest 3</t>
   </si>
 </sst>
 </file>
@@ -905,7 +986,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -979,13 +1060,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,13 +1107,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFCE181E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE181E"/>
-        <bgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1075,7 +1145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1116,7 +1186,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1161,14 +1231,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,7 +1266,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1239,7 +1301,7 @@
       <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1253,21 +1315,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:O24"/>
+  <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="18.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="18.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="102.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="16" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1353,7 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1329,692 +1392,749 @@
       <c r="N5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>43663</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>43664</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>43665</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>43667</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>43668</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>43669</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>61</v>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>64</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>43671</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>70</v>
+      <c r="G12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>43672</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>43673</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>43675</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>43676</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="12" t="s">
-        <v>97</v>
+      <c r="E16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="N16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>43677</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>107</v>
+      <c r="B17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>111</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>43679</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="11" t="s">
-        <v>111</v>
+      <c r="B18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>118</v>
+        <v>104</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>43680</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="11" t="s">
-        <v>120</v>
+      <c r="B19" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>122</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="19" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>43681</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
-        <v>134</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="19" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>43683</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>136</v>
+      <c r="B21" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21" s="21"/>
+        <v>161</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>43684</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="22" t="s">
-        <v>147</v>
+      <c r="B22" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>144</v>
+        <v>159</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>144</v>
+        <v>159</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>157</v>
+        <v>171</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>43685</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
+      <c r="B23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="19" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Training/problems solved.xlsx
+++ b/Training/problems solved.xlsx
@@ -27,7 +27,6 @@
         <sz val="12"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注：</t>
     </r>
@@ -37,7 +36,6 @@
         <color rgb="FF00A65D"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">绿色</t>
     </r>
@@ -46,7 +44,6 @@
         <sz val="12"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示考场上就过的题，</t>
     </r>
@@ -56,7 +53,6 @@
         <color rgb="FFFFF200"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">黄色</t>
     </r>
@@ -65,7 +61,6 @@
         <sz val="12"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示已经补好的题，</t>
     </r>
@@ -75,7 +70,6 @@
         <color rgb="FFED1C24"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">红色</t>
     </r>
@@ -84,7 +78,6 @@
         <sz val="12"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示可以补的题，</t>
     </r>
@@ -94,7 +87,6 @@
         <color rgb="FF808080"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">灰色</t>
     </r>
@@ -103,7 +95,6 @@
         <sz val="12"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示不可做的题,黑色表示没有这道题</t>
     </r>
@@ -159,7 +150,6 @@
         <sz val="14"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">解码</t>
     </r>
@@ -168,7 +158,6 @@
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[ct]</t>
     </r>
@@ -197,7 +186,6 @@
         <sz val="14"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">几何</t>
     </r>
@@ -206,7 +194,6 @@
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[gy]</t>
     </r>
@@ -256,7 +243,6 @@
         <sz val="14"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">二次函数</t>
     </r>
@@ -265,120 +251,380 @@
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[gy,cxy]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gcd+构造树(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">树上计数(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">几何(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">几何+积分(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyptian Collegiate Programming Contest 2017 (ACM ECPC 2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心枚举(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心+DP(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">折半枚举(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MST(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编译器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网格计数(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迭代打表(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM构造(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-2008 Summer Petrozavodsk Camp, Andrew Stankevich Contest 26 (ASC 26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枚举(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">序列DP(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">容斥(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排列DP(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">几何+LIS(ct,gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">暴搜，构造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[cxy]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">gcd+构造树(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">树上计数(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">几何(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">几何+积分(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyptian Collegiate Programming Contest 2017 (ACM ECPC 2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心枚举(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心+DP(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">折半枚举(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MST(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编译器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网格计数(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">迭代打表(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM构造(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-2008 Summer Petrozavodsk Camp, Andrew Stankevich Contest 26 (ASC 26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枚举(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">序列DP(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">容斥(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排列DP(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">几何+LIS(ct,gy)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">暴搜，构造</t>
+    <t xml:space="preserve">HASH(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线段树(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Collegiate Programming Contest, Egyptian Collegiate Programming Contest (ECPC 2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线段树(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二分+最短路(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网络流构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小模拟(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到(gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">环分解</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-2008 Winter Petrozavodsk Camp, Andrew Stankevich Contest 29 (ASC 29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链的颜色计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">置换计数(gy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">齿轮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[cxy,ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">基数排序(ct)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">短路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">生成函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排列计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 Chinese Multi-University Training, BeihangU Contest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模拟暴搜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整点个数(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC自动机(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTT+Hash(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博弈+异或计数(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剪纸</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">线段树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DP(gy,cxy)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">树形背包(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hefei 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子集(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二次函数(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计数(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MST+枚举(cxy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">莫比乌斯(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">异或和(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amritapuri 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模拟B树(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floyd(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心打怪兽(cxy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">冒泡排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">几何</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">+LIS(gy,ct)[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt-in-mid(cxy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">区间值域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ct]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NTT(gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2019 ACM-ICPC, China Multi-Provincial Collegiate Programming Contest</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NTT+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">反演</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">容斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[cxy]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HASH(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">线段树(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Collegiate Programming Contest, Egyptian Collegiate Programming Contest (ECPC 2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">线段树(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二分+最短路(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hash(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网络流构造</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小模拟(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到(gy)</t>
+    <t xml:space="preserve">寿司晚宴(ct)</t>
   </si>
   <si>
     <r>
@@ -386,28 +632,20 @@
         <sz val="14"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">环分解</t>
+      </rPr>
+      <t xml:space="preserve">最小割建图</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[ct]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2007-2008 Winter Petrozavodsk Camp, Andrew Stankevich Contest 29 (ASC 29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链的颜色计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">置换计数(gy)</t>
+    <t xml:space="preserve">Lucas+倍增(ct)</t>
   </si>
   <si>
     <r>
@@ -415,374 +653,90 @@
         <sz val="14"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">齿轮</t>
+      </rPr>
+      <t xml:space="preserve">状压</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[cxy,ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">基数排序(ct)</t>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve">DP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">等比求和</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">k</t>
-    </r>
+      </rPr>
+      <t xml:space="preserve">+DP</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 Multi-University Training Contest - Team 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带花树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二分+贪心(ct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心费用流(ct,gy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">随机游走</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无向图计数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">染色计数</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">短路</t>
+      </rPr>
+      <t xml:space="preserve">结论</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">生成函数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排列计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017 Chinese Multi-University Training, BeihangU Contest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模拟暴搜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整点个数(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC自动机(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTT+Hash(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博弈+异或计数(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剪纸</t>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">线段树</t>
+      </rPr>
+      <t xml:space="preserve">斜率优化</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DP(gy,cxy)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">树形背包(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hefei 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子集(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二次函数(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">计数(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MST+枚举(cxy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">莫比乌斯(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">异或和(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amritapuri 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模拟B树(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floyd(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心打怪兽(cxy)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">冒泡排序</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">几何</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+LIS(gy,ct)[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mt-in-mid(cxy)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区间值域</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NTT(gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-2019 ACM-ICPC, China Multi-Provincial Collegiate Programming Contest</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NTT+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">反演</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">容斥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[cxy]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">寿司晚宴(ct)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">最小割建图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[ct]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas+倍增(ct)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">状压</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等比求和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+DP</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2017 Multi-University Training Contest - Team 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">带花树</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二分+贪心(ct)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心费用流(ct,gy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">随机游走</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无向图计数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">构造</t>
-  </si>
-  <si>
-    <t xml:space="preserve">染色计数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">结论</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">斜率优化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[ct]</t>
     </r>
@@ -986,12 +940,11 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1009,64 +962,175 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00A65D"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFF200"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFED1C24"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1082,20 +1146,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFED1C24"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -1111,7 +1163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1119,8 +1171,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1144,108 +1211,176 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1253,14 +1388,14 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1272,7 +1407,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFF200"/>
@@ -1288,7 +1423,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1317,8 +1452,8 @@
   </sheetPr>
   <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1476,7 +1611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>43665</v>
       </c>
